--- a/opinions/parsed_wiki_data/2017.xlsx
+++ b/opinions/parsed_wiki_data/2017.xlsx
@@ -3077,7 +3077,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t xml:space="preserve">partjoinmajority </t>
+          <t>partjoinmajority</t>
         </is>
       </c>
     </row>

--- a/opinions/parsed_wiki_data/2017.xlsx
+++ b/opinions/parsed_wiki_data/2017.xlsx
@@ -487,47 +487,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -537,47 +537,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -587,17 +587,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -607,27 +607,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -637,47 +637,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -687,12 +687,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -702,32 +702,32 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -737,12 +737,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -752,32 +752,32 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>concurrence2</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -787,17 +787,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -807,22 +807,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -837,32 +837,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -887,47 +887,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -937,17 +937,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -957,27 +957,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>joinconcurrence1</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>joinconcurrence1</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -987,22 +987,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1037,32 +1037,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1087,32 +1087,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1152,32 +1152,32 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>joinconcurrence1</t>
+          <t>concurrence joinconcurrence</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -1187,22 +1187,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority dissent joinmajority joindissent</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence partjoinconcurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -1237,32 +1237,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1272,12 +1272,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1287,37 +1287,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -1337,42 +1337,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1387,37 +1387,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1437,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1462,22 +1462,22 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1487,27 +1487,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1517,17 +1517,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1542,42 +1542,42 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1587,12 +1587,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1607,27 +1607,27 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1637,32 +1637,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1687,22 +1687,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1737,37 +1737,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -1787,47 +1787,47 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1847,22 +1847,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1872,12 +1872,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -1887,12 +1887,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1902,27 +1902,27 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1937,42 +1937,42 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent partjoindissent joindissent</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1992,42 +1992,42 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2047,37 +2047,37 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -2087,17 +2087,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2117,17 +2117,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>joindissent|justice9-sortcode</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2162,17 +2162,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2187,17 +2187,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority partjoindissent joindissent</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2217,17 +2217,17 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2237,17 +2237,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2257,22 +2257,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2287,12 +2287,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2302,27 +2302,27 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2337,22 +2337,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2362,22 +2362,22 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2387,27 +2387,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2422,12 +2422,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2437,42 +2437,42 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>concurrence1</t>
+          <t>concurrence</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2507,27 +2507,27 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -2547,37 +2547,37 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2587,27 +2587,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2617,17 +2617,17 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2637,32 +2637,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2672,12 +2672,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2687,47 +2687,47 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2737,17 +2737,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2757,12 +2757,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2772,12 +2772,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2787,27 +2787,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2817,17 +2817,17 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2837,37 +2837,37 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2897,37 +2897,37 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2942,27 +2942,27 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2972,12 +2972,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -2987,17 +2987,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3007,27 +3007,27 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3042,42 +3042,42 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3102,32 +3102,32 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3162,17 +3162,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3187,12 +3187,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3202,17 +3202,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3222,12 +3222,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3237,47 +3237,47 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3297,37 +3297,37 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
     </row>
@@ -3337,27 +3337,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3372,12 +3372,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3387,37 +3387,37 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>partjoinconcurrencedissent</t>
+          <t>concurrence partjoinconcurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence partjoinconcurrencedissent joindissent</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>concurrencedissent</t>
+          <t>concurrence dissent concurrencedissent</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>partjoinconcurrencedissent</t>
+          <t>concurrence partjoinconcurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence partjoinconcurrencedissent</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -3437,22 +3437,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3462,17 +3462,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3492,42 +3492,42 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>dissent4</t>
+          <t>dissent</t>
         </is>
       </c>
     </row>
@@ -3537,12 +3537,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3552,27 +3552,27 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3587,27 +3587,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3627,7 +3627,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -3637,17 +3637,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>partjoinmajority</t>
+          <t>partjoinmajority majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3657,22 +3657,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3687,47 +3687,47 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3737,47 +3737,47 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3787,12 +3787,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3812,22 +3812,22 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3837,27 +3837,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3872,12 +3872,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -3892,42 +3892,42 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>joindissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -3937,12 +3937,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3962,22 +3962,22 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority concurrence joinmajority joinconcurrence</t>
         </is>
       </c>
     </row>
@@ -3987,12 +3987,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4012,22 +4012,22 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>joindissent</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
     </row>
@@ -4037,27 +4037,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>joindissent2</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4067,17 +4067,17 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>dissent1</t>
+          <t>dissent joindissent</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>dissent2</t>
+          <t>dissent</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4087,47 +4087,47 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>
@@ -4137,47 +4137,47 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>dissentwithoutopinion</t>
+          <t>dissentwithoutopinion dissent</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>joinmajority</t>
+          <t>majority joinmajority</t>
         </is>
       </c>
     </row>

--- a/opinions/parsed_wiki_data/2017.xlsx
+++ b/opinions/parsed_wiki_data/2017.xlsx
@@ -487,47 +487,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -537,47 +537,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -587,17 +587,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -607,27 +607,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -637,47 +637,47 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -687,12 +687,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -702,12 +702,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -717,12 +717,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -757,12 +757,12 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -772,12 +772,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -837,32 +837,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -872,12 +872,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -887,47 +887,47 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -937,12 +937,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1037,32 +1037,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1087,17 +1087,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1157,12 +1157,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1187,17 +1187,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>partjoinmajority majority dissent joinmajority joindissent</t>
+          <t>dissent joindissent joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence partjoinconcurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinconcurrence partjoinmajority</t>
         </is>
       </c>
     </row>
@@ -1237,32 +1237,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1272,12 +1272,12 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1287,37 +1287,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1337,42 +1337,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1387,37 +1387,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1437,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1467,17 +1467,17 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1487,27 +1487,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1517,17 +1517,17 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1542,42 +1542,42 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1587,12 +1587,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1637,17 +1637,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1657,12 +1657,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1672,12 +1672,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1687,12 +1687,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1752,22 +1752,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
     </row>
@@ -1787,47 +1787,47 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1902,27 +1902,27 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1937,17 +1937,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>dissent partjoindissent joindissent</t>
+          <t>dissent joindissent partjoindissent</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1992,42 +1992,42 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2047,37 +2047,37 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2087,12 +2087,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2117,12 +2117,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2137,22 +2137,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2162,17 +2162,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2187,17 +2187,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence dissent concurrencedissent joinmajority partjoindissent joindissent</t>
+          <t>concurrence concurrencedissent dissent joindissent joinmajority majority partjoindissent partjoinmajority</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2222,12 +2222,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2237,17 +2237,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2262,7 +2262,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2287,12 +2287,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2302,12 +2302,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2317,12 +2317,12 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2337,22 +2337,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2362,22 +2362,22 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2387,27 +2387,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2422,12 +2422,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2437,42 +2437,42 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2522,12 +2522,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2552,12 +2552,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2567,17 +2567,17 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2587,27 +2587,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2617,17 +2617,17 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2637,32 +2637,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2672,12 +2672,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>partjoinmajority majority joinmajority</t>
+          <t>joinmajority majority partjoinmajority</t>
         </is>
       </c>
     </row>
@@ -2687,47 +2687,47 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2737,17 +2737,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2757,12 +2757,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2772,12 +2772,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2787,17 +2787,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2837,37 +2837,37 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2897,37 +2897,37 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2942,17 +2942,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2972,12 +2972,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -2987,17 +2987,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3007,27 +3007,27 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3042,42 +3042,42 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
     </row>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3102,32 +3102,32 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -3162,7 +3162,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3187,12 +3187,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3202,12 +3202,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3222,12 +3222,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3237,47 +3237,47 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -3312,7 +3312,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3337,27 +3337,27 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3372,12 +3372,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3387,37 +3387,37 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>concurrence partjoinconcurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence partjoinconcurrencedissent joindissent</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent joindissent partjoinconcurrence partjoinconcurrencedissent</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>concurrence dissent concurrencedissent</t>
+          <t>concurrence concurrencedissent dissent</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>concurrence partjoinconcurrence dissent concurrencedissent joinconcurrencedissent joinconcurrence partjoinconcurrencedissent</t>
+          <t>concurrence concurrencedissent dissent joinconcurrence joinconcurrencedissent partjoinconcurrence partjoinconcurrencedissent</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -3427,7 +3427,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3437,17 +3437,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3502,12 +3502,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3517,12 +3517,12 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3537,12 +3537,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3562,17 +3562,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3587,27 +3587,27 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3637,17 +3637,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>partjoinmajority majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority partjoinmajority</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3662,7 +3662,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3687,47 +3687,47 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3737,47 +3737,47 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3787,12 +3787,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3827,7 +3827,7 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3837,17 +3837,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3892,12 +3892,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3912,7 +3912,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3927,7 +3927,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3937,12 +3937,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority</t>
+          <t>concurrence joinmajority majority</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>majority concurrence joinmajority joinconcurrence</t>
+          <t>concurrence joinconcurrence joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -3987,12 +3987,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4002,7 +4002,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -4037,17 +4037,17 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4087,47 +4087,47 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
@@ -4137,47 +4137,47 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>dissentwithoutopinion dissent</t>
+          <t>dissent dissentwithoutopinion</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>majority joinmajority</t>
+          <t>joinmajority majority</t>
         </is>
       </c>
     </row>
